--- a/biology/Zoologie/Arachnis_picta/Arachnis_picta.xlsx
+++ b/biology/Zoologie/Arachnis_picta/Arachnis_picta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arachnis picta est une espèce de lépidoptères (papillons) nord-américains de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est appelée painted tiger moth en anglais.
 </t>
@@ -542,7 +556,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure de l'imago atteint environ 50 mm.
 </t>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arachnis picta est présente dans le quart sud-ouest des États-Unis et au Mexique[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arachnis picta est présente dans le quart sud-ouest des États-Unis et au Mexique,.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le papillon vole en été.
 La chenille se nourrit de diverses plantes herbacées, dont des lupins, des acanthes et le radis.
@@ -636,9 +656,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>On distingue plusieurs sous-espèces[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On distingue plusieurs sous-espèces :
 Arachnis picta picta  Packard, 1864 — Californie.
 Arachnis picta perotensis Schaus, 1889 — Mexique.
 Arachnis picta maia Ottolengui, 1896 — Colorado, Nouveau-Mexique, Mexique.
